--- a/data/trans_camb/IP1002-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP1002-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 3,72</t>
+          <t>-5,59; 3,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 0,65</t>
+          <t>-7,07; 0,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 2,15</t>
+          <t>-7,09; 2,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 3,53</t>
+          <t>-4,27; 3,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 1,56</t>
+          <t>-5,51; 1,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 0,98</t>
+          <t>-5,38; 0,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 2,14</t>
+          <t>-3,38; 2,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,08; -0,06</t>
+          <t>-5,06; 0,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 0,64</t>
+          <t>-4,84; 0,55</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-83,5; 295,18</t>
+          <t>-100,0; 267,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-86,63; 459,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-76,51; 124,78</t>
+          <t>-68,62; 130,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 32,81</t>
+          <t>-100,0; 40,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 103,0</t>
+          <t>-100,0; 167,71</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,95</t>
+          <t>0,24; 3,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,63</t>
+          <t>-0,6; 1,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,62</t>
+          <t>-0,72; 1,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 1,53</t>
+          <t>-1,14; 1,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,93</t>
+          <t>-1,44; 1,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 1,22</t>
+          <t>-1,29; 1,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,05; 1,96</t>
+          <t>-0,16; 1,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 0,93</t>
+          <t>-0,8; 0,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 1,17</t>
+          <t>-0,69; 1,09</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,91; 663,32</t>
+          <t>0,21; 760,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-52,45; 359,65</t>
+          <t>-56,58; 350,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-60,96; 361,44</t>
+          <t>-62,41; 427,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-58,16; 192,52</t>
+          <t>-61,16; 220,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-72,8; 129,48</t>
+          <t>-71,93; 155,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-69,98; 163,78</t>
+          <t>-68,55; 186,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 274,14</t>
+          <t>-14,29; 249,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-44,04; 129,69</t>
+          <t>-47,13; 124,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-45,46; 149,49</t>
+          <t>-43,95; 154,22</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 3,6</t>
+          <t>-0,51; 3,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 2,75</t>
+          <t>-0,68; 2,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 3,45</t>
+          <t>-0,56; 3,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 1,51</t>
+          <t>-1,53; 1,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 1,61</t>
+          <t>-1,5; 1,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 2,98</t>
+          <t>-0,75; 3,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 1,95</t>
+          <t>-0,62; 1,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,58</t>
+          <t>-0,56; 1,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 2,42</t>
+          <t>-0,38; 2,33</t>
         </is>
       </c>
     </row>
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-72,98; 715,37</t>
+          <t>-71,83; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-70,58; 707,21</t>
+          <t>-59,63; 728,5</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-62,87; 1002,2</t>
+          <t>-63,45; inf</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,41</t>
+          <t>0,2; 2,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,19</t>
+          <t>-0,74; 1,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 1,34</t>
+          <t>-0,8; 1,29</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 1,18</t>
+          <t>-0,89; 1,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 0,59</t>
+          <t>-1,27; 0,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 1,06</t>
+          <t>-1,2; 0,94</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 1,45</t>
+          <t>-0,01; 1,47</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,67</t>
+          <t>-0,77; 0,55</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 0,82</t>
+          <t>-0,68; 0,86</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 312,36</t>
+          <t>2,98; 306,97</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-49,26; 173,23</t>
+          <t>-47,28; 154,74</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-56,85; 192,93</t>
+          <t>-52,07; 166,9</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-48,41; 128,4</t>
+          <t>-49,94; 122,5</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-67,46; 66,0</t>
+          <t>-65,09; 63,82</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-56,66; 110,91</t>
+          <t>-58,12; 103,77</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 159,85</t>
+          <t>-2,24; 156,47</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-42,63; 81,06</t>
+          <t>-46,08; 58,21</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-40,89; 85,0</t>
+          <t>-42,04; 91,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1002-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP1002-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,23</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,35; 3,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,33; 1,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,54; 0,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,76; 3,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,8; 1,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,7; 1,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,64; 2,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,04; -0,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,82; 0,38</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,67%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,35%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,92%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-74,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,4%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,47%</t>
         </is>
       </c>
     </row>
@@ -806,39 +806,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-84,59; 248,18</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,68; 122,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 37,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 86,88</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,32</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>0,19</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 3,76</t>
+          <t>-1,16; 1,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 0,8</t>
+          <t>-1,48; 1,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 2,02</t>
+          <t>-1,37; 1,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 3,35</t>
+          <t>0,32; 2,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 1,25</t>
+          <t>-0,55; 1,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 0,82</t>
+          <t>-0,6; 1,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 2,35</t>
+          <t>0,01; 1,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 0,03</t>
+          <t>-0,69; 0,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 0,55</t>
+          <t>-0,68; 1,11</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-19,46%</t>
+          <t>14,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-74,25%</t>
+          <t>-16,1%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-63,92%</t>
+          <t>-6,99%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,67%</t>
+          <t>172,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-65,35%</t>
+          <t>52,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-72,18%</t>
+          <t>48,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-12,94%</t>
+          <t>81,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-70,4%</t>
+          <t>12,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-66,54%</t>
+          <t>16,7%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 267,61</t>
+          <t>-62,02; 191,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,49; 138,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,1; 179,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,21; 627,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,35; 410,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,31; 465,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-68,62; 130,54</t>
+          <t>-4,25; 261,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 40,81</t>
+          <t>-48,48; 133,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 167,71</t>
+          <t>-47,64; 152,17</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,93</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 3,11</t>
+          <t>-1,58; 1,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 1,5</t>
+          <t>-1,49; 1,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 1,68</t>
+          <t>-0,89; 2,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 1,55</t>
+          <t>-0,52; 3,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,06</t>
+          <t>-0,66; 2,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,41</t>
+          <t>-0,52; 3,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 1,92</t>
+          <t>-0,48; 2,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,91</t>
+          <t>-0,64; 1,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 1,09</t>
+          <t>-0,36; 2,5</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>172,89%</t>
+          <t>-2,12%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>52,84%</t>
+          <t>25,99%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>40,72%</t>
+          <t>108,69%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>248,18%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-16,1%</t>
+          <t>170,58%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-2,36%</t>
+          <t>202,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>81,41%</t>
+          <t>98,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>83,75%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>143,8%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,21; 760,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,58; 350,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-62,41; 427,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-61,16; 220,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-71,93; 155,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-68,55; 186,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-14,29; 249,71</t>
+          <t>-65,05; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-47,13; 124,18</t>
+          <t>-71,28; 722,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-43,95; 154,22</t>
+          <t>-60,1; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 3,57</t>
+          <t>-0,87; 1,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 2,75</t>
+          <t>-1,21; 0,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 3,08</t>
+          <t>-1,09; 1,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 1,47</t>
+          <t>0,08; 2,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 1,63</t>
+          <t>-0,72; 1,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,18</t>
+          <t>-0,8; 1,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 1,86</t>
+          <t>-0,02; 1,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,56</t>
+          <t>-0,69; 0,65</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 2,33</t>
+          <t>-0,66; 0,85</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>248,18%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>170,58%</t>
+          <t>-22,18%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>189,09%</t>
+          <t>-6,91%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-2,12%</t>
+          <t>102,75%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>104,81%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>98,13%</t>
+          <t>52,72%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>83,75%</t>
+          <t>-4,87%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>136,02%</t>
+          <t>5,25%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,55; 143,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,08; 89,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,03; 112,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,8; 355,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,97; 166,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,04; 183,1</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-71,83; —</t>
+          <t>-1,46; 165,63</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-59,63; 728,5</t>
+          <t>-42,51; 75,95</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-63,45; inf</t>
+          <t>-40,87; 91,49</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1,21</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-0,31</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-0,05</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>0,2; 2,44</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-0,74; 1,13</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-0,8; 1,29</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-0,89; 1,07</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-1,27; 0,54</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-1,2; 0,94</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-0,01; 1,47</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-0,77; 0,55</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-0,68; 0,86</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>102,78%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>14,75%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>13,48%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>8,33%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-22,18%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-3,86%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>52,74%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>-4,82%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>4,29%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>2,98; 306,97</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-47,28; 154,74</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-52,07; 166,9</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-49,94; 122,5</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-65,09; 63,82</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-58,12; 103,77</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-2,24; 156,47</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-46,08; 58,21</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-42,04; 91,53</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
